--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1893713.392531532</v>
+        <v>1998652.622706897</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9940640.036161739</v>
+        <v>9956957.483222375</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>174.9372198042336</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>4.443625914097865</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.90342393179426</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>78.99843736219178</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>31.23712159276612</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>264.5251302375178</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.2489179869799</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>2.780673098473565</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>94.25212658606799</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>8.572678716348276</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444122</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>66.24118421664686</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>105.11626575513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>91.32784210538742</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>122.8327676896534</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>179.6966889559084</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.703916880933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881273</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>132.1190787273706</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>109.7234882887264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>35.88641949136129</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605721796</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.45703212904731</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892385</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>34.22340015156063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,10 +3799,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>50.17139158339551</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>20.92847288552893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.2376664596877</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>698.7227977433884</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2751.318417769983</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>970.0546934046018</v>
+        <v>792.0543138529669</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1556.649718698546</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1267.531381202384</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1012.846892996497</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046018</v>
+        <v>1012.846892996497</v>
       </c>
       <c r="X4" t="n">
-        <v>970.0546934046018</v>
+        <v>1012.846892996497</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.0546934046018</v>
+        <v>792.0543138529669</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1571.558046306621</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>3088.075425919891</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>1961.697378282433</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1571.558046306621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1739.316620925522</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1281.167484680568</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>895.3792320823234</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>484.3933272927158</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>69.32087713771227</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>69.32087713771227</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949293</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1918.635276657838</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1696.868661227364</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1696.868661227364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1696.868661227364</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1179.461940292386</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168596</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362671</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5044,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2082.596442208995</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1793.521215553193</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1538.836727347306</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1249.419557310345</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1021.430006412328</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>800.6374272687975</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156759</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314346</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612593</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935512</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656443</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814783013</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038399</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797799</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602299</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565338</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667321</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523791</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,19 +6773,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
         <v>1520.445529061503</v>
@@ -6792,13 +6794,13 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3192.420589669524</v>
+        <v>513.8536007400769</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741617</v>
+        <v>344.91741781217</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>344.91741781217</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>344.91741781217</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4656.028069439961</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4656.028069439961</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4656.028069439961</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4366.952842784159</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V34" t="n">
-        <v>4112.268354578272</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W34" t="n">
-        <v>3822.851184541311</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X34" t="n">
-        <v>3594.861633643294</v>
+        <v>916.2946447138468</v>
       </c>
       <c r="Y34" t="n">
-        <v>3374.069054499764</v>
+        <v>695.5020655703166</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>2971.84874707406</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>2802.912564146153</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>2652.795924733818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4656.264061336411</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4473.409226991315</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4253.807762014257</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>3964.732535358455</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>3710.048047152568</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>3420.630877115607</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>3192.64132621759</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>2971.84874707406</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797193</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,25 +7660,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7721,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>129.7511347056854</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>113.5907959652904</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>127.2568112467074</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>56.9992124922839</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>37.70876137137986</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>61.35027805667502</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.8807364711618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>47.71290145456666</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>38.89198472948593</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>30.48882721876039</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6212754172095</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.91821458107435</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.15184655856106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922739</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.3469868924071</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870633.0738676701</v>
+        <v>878951.7723691693</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>870633.0738676701</v>
+        <v>878951.7723691693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.1451846787</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
@@ -26335,25 +26337,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.2351281079</v>
       </c>
-      <c r="D4" t="n">
-        <v>88524.23512810793</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.200356756674</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756661</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26436,25 +26438,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675665</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756668</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756668</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756508</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675655</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675657</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756508</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-950473.6825120953</v>
+        <v>-769686.5908028686</v>
       </c>
       <c r="C6" t="n">
-        <v>378271.0632154974</v>
+        <v>345065.192773051</v>
       </c>
       <c r="D6" t="n">
-        <v>378271.0632154972</v>
+        <v>185643.9227751596</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.4277949854</v>
+        <v>129130.4277949851</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.889602341</v>
+        <v>454542.8896023409</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023405</v>
+        <v>454542.8896023408</v>
       </c>
       <c r="H6" t="n">
         <v>454542.8896023408</v>
@@ -26543,25 +26545,25 @@
         <v>454542.8896023407</v>
       </c>
       <c r="J6" t="n">
-        <v>237011.6872050634</v>
+        <v>286937.7117923581</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023407</v>
+        <v>454542.8896023408</v>
       </c>
       <c r="L6" t="n">
+        <v>406248.91959415</v>
+      </c>
+      <c r="M6" t="n">
+        <v>369487.8616668288</v>
+      </c>
+      <c r="N6" t="n">
+        <v>454542.8896023409</v>
+      </c>
+      <c r="O6" t="n">
+        <v>454542.8896023409</v>
+      </c>
+      <c r="P6" t="n">
         <v>454542.889602341</v>
-      </c>
-      <c r="M6" t="n">
-        <v>369487.861666829</v>
-      </c>
-      <c r="N6" t="n">
-        <v>454542.8896023408</v>
-      </c>
-      <c r="O6" t="n">
-        <v>454542.8896023406</v>
-      </c>
-      <c r="P6" t="n">
-        <v>454542.8896023408</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>179.7458218164493</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>323.308632556037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3433971668336</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>141.7502586350201</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>296.5151368773688</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>105.2059704409512</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.8956918132053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3357353651149</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>38.79625667445239</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>72.99469451255985</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>181.1963466150936</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.302329278901041e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29691,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.6379772574693e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29961,7 +29963,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>5.6379772574693e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.6049778318534</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32555,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>673.7140351260975</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.3926848685833</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,19 +33502,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>514.6953762540926</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>305.1876769472509</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189577</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>465.1758167018085</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.6305704175232</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>531.5800012040792</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.046483262959</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096482</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>167.3462379728919</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998652.622706897</v>
+        <v>1994556.981202133</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956957.483222375</v>
+        <v>9956957.483222373</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>174.9372198042336</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>53.36047684065773</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>181.5332091950822</v>
       </c>
       <c r="T4" t="n">
-        <v>78.99843736219178</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>234.516127348148</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>264.5251302375178</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.2489179869799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.780673098473565</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>215.8536526006923</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>8.572678716348276</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.24118421664686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>22.61263105777477</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.30373791808189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.32784210538742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.8327676896534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>105.8965430419528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881273</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.1190787273706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.88641949136129</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>159.2661870898838</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.799772605721796</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892385</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.22340015156063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.17139158339551</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.2376664596877</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1067.6853146838</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="C2" t="n">
-        <v>698.7227977433884</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>564.2536606357824</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>178.4654080375381</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>171.5199072883347</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920692</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1457.824646659612</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1067.6853146838</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.0543138529669</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>623.11813092506</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="T4" t="n">
-        <v>1556.649718698546</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="U4" t="n">
-        <v>1267.531381202384</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="V4" t="n">
-        <v>1012.846892996497</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="W4" t="n">
-        <v>1012.846892996497</v>
+        <v>1061.078665578288</v>
       </c>
       <c r="X4" t="n">
-        <v>1012.846892996497</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.0543138529669</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1151.279570239308</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>765.4913176410637</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>354.5054128514561</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1961.697378282433</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1571.558046306621</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>349.276519562732</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168179</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>758.6984582168179</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287318</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.433183287318</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.167484680568</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>895.3792320823234</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>484.3933272927158</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>69.32087713771227</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>69.32087713771227</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2791.303412994536</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1918.635276657838</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1696.868661227364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1696.868661227364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.868661227364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.451491190403</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.461940292386</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.6693611488557</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972545</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>189.0729639753273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3241.424143276705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6001,19 +6001,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814783013</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038399</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797799</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400769</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.91741781217</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.91741781217</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.91741781217</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854712</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648825</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611864</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138468</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703166</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,19 +7016,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2971.84874707406</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>2802.912564146153</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>2652.795924733818</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4656.264061336411</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4473.409226991315</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4253.807762014257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3964.732535358455</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3710.048047152568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>3420.630877115607</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>3192.64132621759</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>2971.84874707406</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,25 +7253,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408906</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>129.7511347056854</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.5907959652904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>45.99097492814199</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2568112467074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.9992124922839</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>61.35027805667502</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.71290145456666</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.48882721876039</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>127.2568112467072</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6212754172095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.15184655856106</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.3469868924071</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.1451846792</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
@@ -26343,19 +26343,19 @@
         <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26438,19 +26438,19 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675665</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756668</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756668</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.5908028686</v>
+        <v>-769686.590802868</v>
       </c>
       <c r="C6" t="n">
-        <v>345065.192773051</v>
+        <v>345065.1927730507</v>
       </c>
       <c r="D6" t="n">
-        <v>185643.9227751596</v>
+        <v>185643.9227751597</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.4277949851</v>
+        <v>128783.0485406286</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.5103479836</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479836</v>
       </c>
       <c r="J6" t="n">
-        <v>286937.7117923581</v>
+        <v>286590.3325380013</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.510347984</v>
       </c>
       <c r="L6" t="n">
-        <v>406248.91959415</v>
+        <v>405901.540339793</v>
       </c>
       <c r="M6" t="n">
-        <v>369487.8616668288</v>
+        <v>369140.4824124721</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479837</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.889602341</v>
+        <v>454195.5103479839</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>179.7458218164493</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>358.1872259322963</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>13.12925116665534</v>
       </c>
       <c r="T4" t="n">
-        <v>141.7502586350201</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>177.031575424806</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>105.2059704409512</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>96.27076102970048</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3357353651149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>38.79625667445239</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>111.8986058694426</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>181.1963466150936</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-4.808063125690506e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.302329278901041e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.6379772574693e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29963,7 +29963,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.6379772574693e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>493.6049778318534</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>465.1758167018085</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>359.6305704175232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.046483262959</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994556.981202133</v>
+        <v>1996317.511504918</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.36047684065773</v>
+        <v>189.0119616332455</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>181.5332091950822</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>168.4268924396281</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>234.516127348148</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>215.8536526006923</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,13 +1426,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>22.61263105777477</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358744</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763354</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>120.7871326503968</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>159.2661870898838</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2798710842933</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>230.5137773805959</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="U43" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182944</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="C2" t="n">
-        <v>922.5193592425328</v>
+        <v>673.7528084549833</v>
       </c>
       <c r="D2" t="n">
-        <v>564.2536606357824</v>
+        <v>315.4871098482328</v>
       </c>
       <c r="E2" t="n">
-        <v>178.4654080375381</v>
+        <v>315.4871098482328</v>
       </c>
       <c r="F2" t="n">
-        <v>171.5199072883347</v>
+        <v>308.5416090990294</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182944</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4479,61 +4479,61 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1350.495835615249</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1350.495835615249</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1350.495835615249</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1350.495835615249</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1061.078665578288</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>833.0891146802707</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.545268846058</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D5" t="n">
-        <v>1151.279570239308</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>765.4913176410637</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>354.5054128514561</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2791.303412994536</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.534757724422</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2438.534757724422</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>365.9405071576781</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>198.744407872558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576731</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576731</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>198.744407872553</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5931,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,31 +5995,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>215.8238677453423</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>215.8238677453423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,19 +6721,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199798</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2314.910189088387</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2095.308724111328</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1806.233497455525</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>813.3497091711304</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.113569660651</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.429081454764</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.011911417804</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X43" t="n">
-        <v>957.0223605197863</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.2297813762561</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.6820817884491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>38.89198472948121</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>203.6630665685074</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>36.41624546988852</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.50758019582713</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>127.2568112467072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>40.30478226780144</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>21.62386594323209</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>32.79125956324884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>151.7319110345167</v>
       </c>
       <c r="U43" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846787</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846787</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
@@ -26346,13 +26346,13 @@
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756643</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26447,7 +26447,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756537</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.590802868</v>
+        <v>-769686.5908028682</v>
       </c>
       <c r="C6" t="n">
-        <v>345065.1927730507</v>
+        <v>345065.1927730512</v>
       </c>
       <c r="D6" t="n">
-        <v>185643.9227751597</v>
+        <v>185643.9227751594</v>
       </c>
       <c r="E6" t="n">
-        <v>128783.0485406286</v>
+        <v>129095.68986955</v>
       </c>
       <c r="F6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="G6" t="n">
-        <v>454195.5103479836</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="H6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="I6" t="n">
-        <v>454195.5103479836</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="J6" t="n">
-        <v>286590.3325380013</v>
+        <v>286902.9738669224</v>
       </c>
       <c r="K6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="L6" t="n">
-        <v>405901.540339793</v>
+        <v>406214.1816687143</v>
       </c>
       <c r="M6" t="n">
-        <v>369140.4824124721</v>
+        <v>369453.1237413932</v>
       </c>
       <c r="N6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="O6" t="n">
-        <v>454195.5103479837</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="P6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769051</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766463e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.266319098766463e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>358.1872259322963</v>
+        <v>222.5357411397085</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>13.12925116665534</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>186.2561491810548</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>177.031575424806</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>96.27076102970048</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>111.8986058694426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.180481000307642e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3.91526198435368e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-4.808063125690506e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-3.91526198435368e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066289</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
